--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>757.6302120078403</v>
+        <v>797.2642435338337</v>
       </c>
       <c r="R2">
-        <v>757.6302120078403</v>
+        <v>3189.056974135335</v>
       </c>
       <c r="S2">
-        <v>0.002209007041828961</v>
+        <v>0.001722816993486082</v>
       </c>
       <c r="T2">
-        <v>0.002209007041828961</v>
+        <v>0.0008369650478382137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>4280.027257349233</v>
+        <v>4704.713951544437</v>
       </c>
       <c r="R3">
-        <v>4280.027257349233</v>
+        <v>28228.28370926662</v>
       </c>
       <c r="S3">
-        <v>0.01247918866071633</v>
+        <v>0.0101664676560499</v>
       </c>
       <c r="T3">
-        <v>0.01247918866071633</v>
+        <v>0.007408486902785067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>8634.17564592531</v>
+        <v>9772.245543073444</v>
       </c>
       <c r="R4">
-        <v>8634.17564592531</v>
+        <v>58633.47325844067</v>
       </c>
       <c r="S4">
-        <v>0.02517449080032166</v>
+        <v>0.02111695190480607</v>
       </c>
       <c r="T4">
-        <v>0.02517449080032166</v>
+        <v>0.01538830072610325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>5910.016129298202</v>
+        <v>6155.140700457856</v>
       </c>
       <c r="R5">
-        <v>5910.016129298202</v>
+        <v>36930.84420274713</v>
       </c>
       <c r="S5">
-        <v>0.01723171415292948</v>
+        <v>0.01330071062643437</v>
       </c>
       <c r="T5">
-        <v>0.01723171415292948</v>
+        <v>0.009692465840388007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>663.2659748731036</v>
+        <v>738.2991666097595</v>
       </c>
       <c r="R6">
-        <v>663.2659748731036</v>
+        <v>4429.794999658557</v>
       </c>
       <c r="S6">
-        <v>0.001933871149643481</v>
+        <v>0.001595398716081926</v>
       </c>
       <c r="T6">
-        <v>0.001933871149643481</v>
+        <v>0.001162595592952039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>3179.661183637989</v>
+        <v>3598.65487463668</v>
       </c>
       <c r="R7">
-        <v>3179.661183637989</v>
+        <v>14394.61949854672</v>
       </c>
       <c r="S7">
-        <v>0.009270873618769892</v>
+        <v>0.007776372541474066</v>
       </c>
       <c r="T7">
-        <v>0.009270873618769892</v>
+        <v>0.003777854549143205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>6343.030023896457</v>
+        <v>6857.8677693407</v>
       </c>
       <c r="R8">
-        <v>6343.030023896457</v>
+        <v>41147.2066160442</v>
       </c>
       <c r="S8">
-        <v>0.01849424398241236</v>
+        <v>0.01481924120882672</v>
       </c>
       <c r="T8">
-        <v>0.01849424398241236</v>
+        <v>0.01079904624881901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>35833.2349557629</v>
+        <v>40468.77360165332</v>
       </c>
       <c r="R9">
-        <v>35833.2349557629</v>
+        <v>364218.9624148799</v>
       </c>
       <c r="S9">
-        <v>0.1044782363404124</v>
+        <v>0.08744941395770821</v>
       </c>
       <c r="T9">
-        <v>0.1044782363404124</v>
+        <v>0.09558892919553653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>72287.02668622338</v>
+        <v>84058.41386649704</v>
       </c>
       <c r="R10">
-        <v>72287.02668622338</v>
+        <v>756525.7247984733</v>
       </c>
       <c r="S10">
-        <v>0.2107658174818047</v>
+        <v>0.1816427427032122</v>
       </c>
       <c r="T10">
-        <v>0.2107658174818047</v>
+        <v>0.1985494754663241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>49479.82426743944</v>
+        <v>52944.98200286559</v>
       </c>
       <c r="R11">
-        <v>49479.82426743944</v>
+        <v>476504.8380257902</v>
       </c>
       <c r="S11">
-        <v>0.1442673199971362</v>
+        <v>0.1144093886740083</v>
       </c>
       <c r="T11">
-        <v>0.1442673199971362</v>
+        <v>0.125058253203999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>5552.993961657791</v>
+        <v>6350.664914284849</v>
       </c>
       <c r="R12">
-        <v>5552.993961657791</v>
+        <v>57155.98422856364</v>
       </c>
       <c r="S12">
-        <v>0.01619075186036644</v>
+        <v>0.01372322103117304</v>
       </c>
       <c r="T12">
-        <v>0.01619075186036644</v>
+        <v>0.01500053509927347</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>26620.75249109152</v>
+        <v>30954.72985012198</v>
       </c>
       <c r="R13">
-        <v>26620.75249109152</v>
+        <v>185728.3791007319</v>
       </c>
       <c r="S13">
-        <v>0.07761758807870571</v>
+        <v>0.06689041311846801</v>
       </c>
       <c r="T13">
-        <v>0.07761758807870571</v>
+        <v>0.04874424099654268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>2391.408062962402</v>
+        <v>4772.213552924725</v>
       </c>
       <c r="R14">
-        <v>2391.408062962402</v>
+        <v>28633.28131754835</v>
       </c>
       <c r="S14">
-        <v>0.006972579983275318</v>
+        <v>0.01031232828037196</v>
       </c>
       <c r="T14">
-        <v>0.006972579983275318</v>
+        <v>0.00751477814980231</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>13509.61396562931</v>
+        <v>28161.17725620991</v>
       </c>
       <c r="R15">
-        <v>13509.61396562931</v>
+        <v>253450.5953058892</v>
       </c>
       <c r="S15">
-        <v>0.0393897074185806</v>
+        <v>0.06085379487047482</v>
       </c>
       <c r="T15">
-        <v>0.0393897074185806</v>
+        <v>0.06651787388725879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>27253.18622389589</v>
+        <v>58494.08524387719</v>
       </c>
       <c r="R16">
-        <v>27253.18622389589</v>
+        <v>526446.7671948947</v>
       </c>
       <c r="S16">
-        <v>0.07946156228553231</v>
+        <v>0.1264005063489324</v>
       </c>
       <c r="T16">
-        <v>0.07946156228553231</v>
+        <v>0.1381654662375591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>18654.56260830225</v>
+        <v>36843.04935172605</v>
       </c>
       <c r="R17">
-        <v>18654.56260830225</v>
+        <v>331587.4441655344</v>
       </c>
       <c r="S17">
-        <v>0.05439072981893239</v>
+        <v>0.07961454690813104</v>
       </c>
       <c r="T17">
-        <v>0.05439072981893239</v>
+        <v>0.08702481746780483</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>2093.553787931234</v>
+        <v>4419.264149350508</v>
       </c>
       <c r="R18">
-        <v>2093.553787931234</v>
+        <v>39773.37734415457</v>
       </c>
       <c r="S18">
-        <v>0.006104132315066567</v>
+        <v>0.00954963606728184</v>
       </c>
       <c r="T18">
-        <v>0.006104132315066567</v>
+        <v>0.01043848602942048</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>10036.38354374624</v>
+        <v>21540.59924839837</v>
       </c>
       <c r="R19">
-        <v>10036.38354374624</v>
+        <v>129243.5954903902</v>
       </c>
       <c r="S19">
-        <v>0.029262879926444</v>
+        <v>0.04654731569363221</v>
       </c>
       <c r="T19">
-        <v>0.029262879926444</v>
+        <v>0.03391986187757793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>754.7821164453953</v>
+        <v>953.885952638295</v>
       </c>
       <c r="R20">
-        <v>754.7821164453953</v>
+        <v>5723.31571582977</v>
       </c>
       <c r="S20">
-        <v>0.002200702907366623</v>
+        <v>0.002061262551759196</v>
       </c>
       <c r="T20">
-        <v>0.002200702907366623</v>
+        <v>0.001502078906317269</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>4263.937710700223</v>
+        <v>5628.949982339442</v>
       </c>
       <c r="R21">
-        <v>4263.937710700223</v>
+        <v>50660.54984105498</v>
       </c>
       <c r="S21">
-        <v>0.01243227669590264</v>
+        <v>0.01216365936853411</v>
       </c>
       <c r="T21">
-        <v>0.01243227669590264</v>
+        <v>0.01329581436302976</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>8601.71791528999</v>
+        <v>11691.99274252208</v>
       </c>
       <c r="R22">
-        <v>8601.71791528999</v>
+        <v>105227.9346826988</v>
       </c>
       <c r="S22">
-        <v>0.02507985445346164</v>
+        <v>0.02526535455202334</v>
       </c>
       <c r="T22">
-        <v>0.02507985445346164</v>
+        <v>0.02761697395183755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>5887.799102515143</v>
+        <v>7364.311516912801</v>
       </c>
       <c r="R23">
-        <v>5887.799102515143</v>
+        <v>66278.80365221521</v>
       </c>
       <c r="S23">
-        <v>0.01716693641857513</v>
+        <v>0.01591362102284501</v>
       </c>
       <c r="T23">
-        <v>0.01716693641857513</v>
+        <v>0.01739481060368216</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>660.7726148541697</v>
+        <v>883.3372493315926</v>
       </c>
       <c r="R24">
-        <v>660.7726148541697</v>
+        <v>7950.035243984335</v>
       </c>
       <c r="S24">
-        <v>0.001926601310410113</v>
+        <v>0.001908813089851229</v>
       </c>
       <c r="T24">
-        <v>0.001926601310410113</v>
+        <v>0.002086479383172807</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>3167.70815066271</v>
+        <v>4305.606781126863</v>
       </c>
       <c r="R25">
-        <v>3167.70815066271</v>
+        <v>25833.64068676118</v>
       </c>
       <c r="S25">
-        <v>0.009236022402972107</v>
+        <v>0.009304032621499949</v>
       </c>
       <c r="T25">
-        <v>0.009236022402972107</v>
+        <v>0.006780015060437337</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>429.5797424297607</v>
+        <v>446.8692398034225</v>
       </c>
       <c r="R26">
-        <v>429.5797424297607</v>
+        <v>2681.215438820535</v>
       </c>
       <c r="S26">
-        <v>0.001252516941661498</v>
+        <v>0.0009656446108596517</v>
       </c>
       <c r="T26">
-        <v>0.001252516941661498</v>
+        <v>0.0007036825074677244</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>2426.794731339742</v>
+        <v>2637.007697348211</v>
       </c>
       <c r="R27">
-        <v>2426.794731339742</v>
+        <v>23733.0692761339</v>
       </c>
       <c r="S27">
-        <v>0.007075756174500913</v>
+        <v>0.005698338674776282</v>
       </c>
       <c r="T27">
-        <v>0.007075756174500913</v>
+        <v>0.006228722040136272</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>4895.616477912478</v>
+        <v>5477.375879356483</v>
       </c>
       <c r="R28">
-        <v>4895.616477912478</v>
+        <v>49296.38291420834</v>
       </c>
       <c r="S28">
-        <v>0.01427404966486559</v>
+        <v>0.01183612123734439</v>
       </c>
       <c r="T28">
-        <v>0.01427404966486559</v>
+        <v>0.0129377900171345</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>3351.005762892386</v>
+        <v>3449.976677124091</v>
       </c>
       <c r="R29">
-        <v>3351.005762892386</v>
+        <v>31049.79009411682</v>
       </c>
       <c r="S29">
-        <v>0.009770459533050018</v>
+        <v>0.007455092203978663</v>
       </c>
       <c r="T29">
-        <v>0.009770459533050018</v>
+        <v>0.008148988639042775</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>376.0747949759208</v>
+        <v>413.8191195782663</v>
       </c>
       <c r="R30">
-        <v>376.0747949759208</v>
+        <v>3724.372076204397</v>
       </c>
       <c r="S30">
-        <v>0.001096513651632988</v>
+        <v>0.0008942262458414533</v>
       </c>
       <c r="T30">
-        <v>0.001096513651632988</v>
+        <v>0.0009774580003459781</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>1802.882211707498</v>
+        <v>2017.057934287666</v>
       </c>
       <c r="R31">
-        <v>1802.882211707498</v>
+        <v>12102.347605726</v>
       </c>
       <c r="S31">
-        <v>0.005256627096081036</v>
+        <v>0.004358682474751238</v>
       </c>
       <c r="T31">
-        <v>0.005256627096081036</v>
+        <v>0.003176249914922747</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>416.3910964942952</v>
+        <v>490.9113507904575</v>
       </c>
       <c r="R32">
-        <v>416.3910964942952</v>
+        <v>1963.64540316183</v>
       </c>
       <c r="S32">
-        <v>0.001214063074218141</v>
+        <v>0.00106081568852036</v>
       </c>
       <c r="T32">
-        <v>0.001214063074218141</v>
+        <v>0.0005153569165192606</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>2352.289038197272</v>
+        <v>2896.903378982877</v>
       </c>
       <c r="R33">
-        <v>2352.289038197272</v>
+        <v>17381.42027389726</v>
       </c>
       <c r="S33">
-        <v>0.006858521436234746</v>
+        <v>0.006259950085905434</v>
       </c>
       <c r="T33">
-        <v>0.006858521436234746</v>
+        <v>0.004561737645023697</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>4745.314808662849</v>
+        <v>6017.209850704446</v>
       </c>
       <c r="R34">
-        <v>4745.314808662849</v>
+        <v>36103.25910422667</v>
       </c>
       <c r="S34">
-        <v>0.01383581813646445</v>
+        <v>0.0130026543498505</v>
       </c>
       <c r="T34">
-        <v>0.01383581813646445</v>
+        <v>0.00947526689813293</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>3248.125612435294</v>
+        <v>3789.996177646037</v>
       </c>
       <c r="R35">
-        <v>3248.125612435294</v>
+        <v>22739.97706587622</v>
       </c>
       <c r="S35">
-        <v>0.009470493965122289</v>
+        <v>0.008189844048636048</v>
       </c>
       <c r="T35">
-        <v>0.009470493965122289</v>
+        <v>0.005968085909766905</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>364.528819162126</v>
+        <v>454.6039084373977</v>
       </c>
       <c r="R36">
-        <v>364.528819162126</v>
+        <v>2727.623450624386</v>
       </c>
       <c r="S36">
-        <v>0.001062849284144439</v>
+        <v>0.0009823585406133956</v>
       </c>
       <c r="T36">
-        <v>0.001062849284144439</v>
+        <v>0.0007158622471633495</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>1747.531428593122</v>
+        <v>2215.853200321766</v>
       </c>
       <c r="R37">
-        <v>1747.531428593122</v>
+        <v>8863.412801287062</v>
       </c>
       <c r="S37">
-        <v>0.005095241940456938</v>
+        <v>0.004788261331856472</v>
       </c>
       <c r="T37">
-        <v>0.005095241940456938</v>
+        <v>0.00232619447673883</v>
       </c>
     </row>
   </sheetData>
